--- a/ModelOutputSummary.xlsx
+++ b/ModelOutputSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amikk\Documents\Rprojects\Diet-sensitivty-to-TDFs-and-priors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C346A0FC-0A91-44B1-8479-68589ACB692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DA662-8FDF-44BA-A772-ABFAA518CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A730971B-B7B1-49D3-95F7-3F66F4BEE8AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A730971B-B7B1-49D3-95F7-3F66F4BEE8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>food source</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>estimate</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>Deviance</t>
   </si>
   <si>
@@ -100,6 +94,33 @@
   </si>
   <si>
     <t>Ro</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Food Source</t>
+  </si>
+  <si>
+    <t>95% Credible Interval</t>
+  </si>
+  <si>
+    <t>13C = -10.6+(0.42*x)</t>
+  </si>
+  <si>
+    <t>15N = 5.02 + (0.90*x)</t>
+  </si>
+  <si>
+    <t>13C = -10.34+(0.42*x)</t>
+  </si>
+  <si>
+    <t>15N = 4.76 + (0.91*x)</t>
+  </si>
+  <si>
+    <t>13C = -10.86+(0.42*x)</t>
+  </si>
+  <si>
+    <t>15N = 5.28 + (0.88*x)</t>
   </si>
 </sst>
 </file>
@@ -147,17 +168,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2140FE-7A61-45DA-8EFF-4EDCC343C77E}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="M9" sqref="M9:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,420 +521,991 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="7" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3409.8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4.62</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.87</v>
+      </c>
+      <c r="H3" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K3" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.64</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5.28</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5.07</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5.61</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5.19</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.45</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.247</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.04</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3703.14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4.8869999999999996</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.3230000000000004</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.104</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5.149</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="B15" s="2">
+        <v>3159.35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F16" s="9">
+        <v>6.3780000000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.5919999999999996</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4.931</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5.798</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.308</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.0640000000000001</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2919.451</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3409.7</v>
-      </c>
-      <c r="C3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>4.62</v>
-      </c>
-      <c r="G3">
-        <v>4.87</v>
-      </c>
-      <c r="H3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>6.64</v>
-      </c>
-      <c r="G4">
-        <v>5.28</v>
-      </c>
-      <c r="H4">
-        <v>0.47</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>5.07</v>
-      </c>
-      <c r="G5">
-        <v>5.61</v>
-      </c>
-      <c r="H5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>5.19</v>
-      </c>
-      <c r="G6">
-        <v>5.45</v>
-      </c>
-      <c r="H6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.247</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>5.04</v>
-      </c>
-      <c r="G7">
-        <v>4.84</v>
-      </c>
-      <c r="H7">
-        <v>0.04</v>
-      </c>
-      <c r="I7" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K7" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>4.8869999999999996</v>
-      </c>
-      <c r="G9">
-        <v>4.6280000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>6.8979999999999997</v>
-      </c>
-      <c r="G10">
-        <v>4.9939999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>5.3230000000000004</v>
-      </c>
-      <c r="G11">
-        <v>5.2910000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <v>5.4509999999999996</v>
-      </c>
-      <c r="G12">
-        <v>5.149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <v>5.3029999999999999</v>
-      </c>
-      <c r="G13">
-        <v>4.5979999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="G15">
-        <v>5.1040000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>6.3780000000000001</v>
-      </c>
-      <c r="G16">
-        <v>5.5919999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <v>4.8079999999999998</v>
-      </c>
-      <c r="G17">
-        <v>5.9880000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>4.931</v>
-      </c>
-      <c r="G18">
-        <v>5.798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <v>4.7830000000000004</v>
-      </c>
-      <c r="G19">
-        <v>5.0640000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <f>F3-1</f>
         <v>3.62</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <f>G3-1</f>
         <v>3.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F22">
+      <c r="H21" s="9">
+        <v>0.221</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" ref="F22:G22" si="0">F4-1</f>
         <v>5.64</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>4.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F23">
+      <c r="H22" s="9">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" ref="F23:G23" si="1">F5-1</f>
         <v>4.07</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <f t="shared" si="1"/>
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F24">
+      <c r="H23" s="9">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" ref="F24:G24" si="2">F6-1</f>
         <v>4.1900000000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <f t="shared" si="2"/>
         <v>4.45</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F25">
+      <c r="H24" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" ref="F25:G25" si="3">F7-1</f>
         <v>4.04</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="9">
         <f t="shared" si="3"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4926.098</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9">
         <f>F3+1</f>
         <v>5.62</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <f>G3+1</f>
         <v>5.87</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28">
+      <c r="H27" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" ref="F28:G28" si="4">F4+1</f>
         <v>7.64</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <f t="shared" si="4"/>
         <v>6.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29">
+      <c r="H28" s="9">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9">
         <f t="shared" ref="F29:G29" si="5">F5+1</f>
         <v>6.07</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="9">
         <f t="shared" si="5"/>
         <v>6.61</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30">
+      <c r="H29" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="9">
         <f t="shared" ref="F30:G30" si="6">F6+1</f>
         <v>6.19</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="9">
         <f t="shared" si="6"/>
         <v>6.45</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31">
+      <c r="H30" s="9">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I30" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9">
         <f t="shared" ref="F31:G31" si="7">F7+1</f>
         <v>6.04</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <f t="shared" si="7"/>
         <v>5.84</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8558.11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F34">
+      <c r="H33" s="9">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="9">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F35">
+      <c r="H34" s="9">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="I34" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="J34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F36">
+      <c r="K34" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="9">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F37">
+      <c r="H35" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="I35" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G36" s="9">
         <v>0</v>
       </c>
+      <c r="H36" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="I36" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="I37" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>10.86-10.34</f>
+        <v>0.51999999999999957</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
